--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N2">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O2">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P2">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q2">
-        <v>427.1515663753669</v>
+        <v>441.13469630439</v>
       </c>
       <c r="R2">
-        <v>427.1515663753669</v>
+        <v>1764.53878521756</v>
       </c>
       <c r="S2">
-        <v>0.02018817794887697</v>
+        <v>0.0170789819576548</v>
       </c>
       <c r="T2">
-        <v>0.02018817794887697</v>
+        <v>0.01001791445003943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N3">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P3">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q3">
-        <v>10.11862667137227</v>
+        <v>16.209965666246</v>
       </c>
       <c r="R3">
-        <v>10.11862667137227</v>
+        <v>97.25979399747601</v>
       </c>
       <c r="S3">
-        <v>0.0004782298648072952</v>
+        <v>0.0006275854369817887</v>
       </c>
       <c r="T3">
-        <v>0.0004782298648072952</v>
+        <v>0.0005521784524419172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N4">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O4">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P4">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q4">
-        <v>4.16660266817656</v>
+        <v>5.387980862308002</v>
       </c>
       <c r="R4">
-        <v>4.16660266817656</v>
+        <v>32.327885173848</v>
       </c>
       <c r="S4">
-        <v>0.0001969233469543114</v>
+        <v>0.0002086012020964489</v>
       </c>
       <c r="T4">
-        <v>0.0001969233469543114</v>
+        <v>0.0001835369053576099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N5">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O5">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P5">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q5">
-        <v>5.226514842290444</v>
+        <v>6.144255139637999</v>
       </c>
       <c r="R5">
-        <v>5.226514842290444</v>
+        <v>36.865530837828</v>
       </c>
       <c r="S5">
-        <v>0.0002470172650517311</v>
+        <v>0.0002378811359709881</v>
       </c>
       <c r="T5">
-        <v>0.0002470172650517311</v>
+        <v>0.0002092987341409536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N6">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O6">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P6">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q6">
-        <v>275.4998822365505</v>
+        <v>291.64191401862</v>
       </c>
       <c r="R6">
-        <v>275.4998822365505</v>
+        <v>1749.85148411172</v>
       </c>
       <c r="S6">
-        <v>0.01302076612917899</v>
+        <v>0.01129121565215308</v>
       </c>
       <c r="T6">
-        <v>0.01302076612917899</v>
+        <v>0.009934529416390463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N7">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O7">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P7">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q7">
-        <v>150.3244263935584</v>
+        <v>157.958929730712</v>
       </c>
       <c r="R7">
-        <v>150.3244263935584</v>
+        <v>631.8357189228481</v>
       </c>
       <c r="S7">
-        <v>0.007104682527206632</v>
+        <v>0.006115541882155156</v>
       </c>
       <c r="T7">
-        <v>0.007104682527206632</v>
+        <v>0.003587156163228131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N8">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O8">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P8">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q8">
-        <v>1050.13332700027</v>
+        <v>1160.181825831748</v>
       </c>
       <c r="R8">
-        <v>1050.13332700027</v>
+        <v>6961.09095499049</v>
       </c>
       <c r="S8">
-        <v>0.04963174700592701</v>
+        <v>0.04491762864489569</v>
       </c>
       <c r="T8">
-        <v>0.04963174700592701</v>
+        <v>0.03952058988459123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N9">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P9">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q9">
-        <v>24.87619835097158</v>
+        <v>42.6321205765199</v>
       </c>
       <c r="R9">
-        <v>24.87619835097158</v>
+        <v>383.689085188679</v>
       </c>
       <c r="S9">
-        <v>0.001175707075740072</v>
+        <v>0.001650546248668995</v>
       </c>
       <c r="T9">
-        <v>0.001175707075740072</v>
+        <v>0.002178339440898239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N10">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O10">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P10">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q10">
-        <v>10.24340928759562</v>
+        <v>14.17036004364912</v>
       </c>
       <c r="R10">
-        <v>10.24340928759562</v>
+        <v>127.533240392842</v>
       </c>
       <c r="S10">
-        <v>0.0004841273818938406</v>
+        <v>0.0005486200145815808</v>
       </c>
       <c r="T10">
-        <v>0.0004841273818938406</v>
+        <v>0.0007240515779505972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N11">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O11">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P11">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q11">
-        <v>12.84915672093686</v>
+        <v>16.15935723487633</v>
       </c>
       <c r="R11">
-        <v>12.84915672093686</v>
+        <v>145.434215113887</v>
       </c>
       <c r="S11">
-        <v>0.0006072810749038168</v>
+        <v>0.000625626079684553</v>
       </c>
       <c r="T11">
-        <v>0.0006072810749038168</v>
+        <v>0.0008256817800351811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N12">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O12">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P12">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q12">
-        <v>677.3043357331708</v>
+        <v>767.0166303620701</v>
       </c>
       <c r="R12">
-        <v>677.3043357331708</v>
+        <v>6903.149673258631</v>
       </c>
       <c r="S12">
-        <v>0.03201098048487851</v>
+        <v>0.02969583508374925</v>
       </c>
       <c r="T12">
-        <v>0.03201098048487851</v>
+        <v>0.03919163661454801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N13">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O13">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P13">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q13">
-        <v>369.565986512974</v>
+        <v>415.4311167012654</v>
       </c>
       <c r="R13">
-        <v>369.565986512974</v>
+        <v>2492.586700207592</v>
       </c>
       <c r="S13">
-        <v>0.01746654931617369</v>
+        <v>0.01608384152556782</v>
       </c>
       <c r="T13">
-        <v>0.01746654931617369</v>
+        <v>0.01415130147955743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N14">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O14">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P14">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q14">
-        <v>5488.192819095249</v>
+        <v>7312.546752086654</v>
       </c>
       <c r="R14">
-        <v>5488.192819095249</v>
+        <v>43875.28051251992</v>
       </c>
       <c r="S14">
-        <v>0.2593847757362059</v>
+        <v>0.2831127433177881</v>
       </c>
       <c r="T14">
-        <v>0.2593847757362059</v>
+        <v>0.2490955768885031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N15">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P15">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q15">
-        <v>130.0076567859999</v>
+        <v>268.707342172767</v>
       </c>
       <c r="R15">
-        <v>130.0076567859999</v>
+        <v>2418.366079554903</v>
       </c>
       <c r="S15">
-        <v>0.006144464673707552</v>
+        <v>0.01040328019379235</v>
       </c>
       <c r="T15">
-        <v>0.006144464673707552</v>
+        <v>0.01372992461079351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N16">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O16">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P16">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q16">
-        <v>53.53396930637687</v>
+        <v>89.31481083906601</v>
       </c>
       <c r="R16">
-        <v>53.53396930637687</v>
+        <v>803.833297551594</v>
       </c>
       <c r="S16">
-        <v>0.00253014008080945</v>
+        <v>0.003457914454815871</v>
       </c>
       <c r="T16">
-        <v>0.00253014008080945</v>
+        <v>0.004563647608330745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N17">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O17">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P17">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q17">
-        <v>67.15209186695684</v>
+        <v>101.851324191351</v>
       </c>
       <c r="R17">
-        <v>67.15209186695684</v>
+        <v>916.6619177221587</v>
       </c>
       <c r="S17">
-        <v>0.003173764272371021</v>
+        <v>0.003943278419947812</v>
       </c>
       <c r="T17">
-        <v>0.003173764272371021</v>
+        <v>0.005204215825846774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N18">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O18">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P18">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q18">
-        <v>3539.718906294563</v>
+        <v>4834.45339710399</v>
       </c>
       <c r="R18">
-        <v>3539.718906294563</v>
+        <v>43510.08057393591</v>
       </c>
       <c r="S18">
-        <v>0.1672953602293047</v>
+        <v>0.1871708188813357</v>
       </c>
       <c r="T18">
-        <v>0.1672953602293047</v>
+        <v>0.2470222069107255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N19">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O19">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P19">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q19">
-        <v>1931.420840776568</v>
+        <v>2618.433934673724</v>
       </c>
       <c r="R19">
-        <v>1931.420840776568</v>
+        <v>15710.60360804234</v>
       </c>
       <c r="S19">
-        <v>0.09128344760300405</v>
+        <v>0.1013753538369286</v>
       </c>
       <c r="T19">
-        <v>0.09128344760300405</v>
+        <v>0.08919468601221126</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N20">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O20">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P20">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q20">
-        <v>2461.792544343519</v>
+        <v>2529.830800826141</v>
       </c>
       <c r="R20">
-        <v>2461.792544343519</v>
+        <v>15178.98480495685</v>
       </c>
       <c r="S20">
-        <v>0.1163500496560314</v>
+        <v>0.09794499268635078</v>
       </c>
       <c r="T20">
-        <v>0.1163500496560314</v>
+        <v>0.08617649693415923</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N21">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P21">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q21">
-        <v>58.31644235781564</v>
+        <v>92.96133531629278</v>
       </c>
       <c r="R21">
-        <v>58.31644235781564</v>
+        <v>836.652017846635</v>
       </c>
       <c r="S21">
-        <v>0.002756170896562821</v>
+        <v>0.00359909338786386</v>
       </c>
       <c r="T21">
-        <v>0.002756170896562821</v>
+        <v>0.004749971159294776</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N22">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O22">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P22">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q22">
-        <v>24.01328285132654</v>
+        <v>30.89913365219222</v>
       </c>
       <c r="R22">
-        <v>24.01328285132654</v>
+        <v>278.09220286973</v>
       </c>
       <c r="S22">
-        <v>0.001134923679322957</v>
+        <v>0.001196291632859493</v>
       </c>
       <c r="T22">
-        <v>0.001134923679322957</v>
+        <v>0.001578828371986436</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N23">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O23">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P23">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q23">
-        <v>30.12184967699408</v>
+        <v>35.23623516946166</v>
       </c>
       <c r="R23">
-        <v>30.12184967699408</v>
+        <v>317.1261165251549</v>
       </c>
       <c r="S23">
-        <v>0.001423628775585703</v>
+        <v>0.001364206963896728</v>
       </c>
       <c r="T23">
-        <v>0.001423628775585703</v>
+        <v>0.001800437786824013</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N24">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O24">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P24">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q24">
-        <v>1587.781971192532</v>
+        <v>1672.51568075955</v>
       </c>
       <c r="R24">
-        <v>1587.781971192532</v>
+        <v>15052.64112683595</v>
       </c>
       <c r="S24">
-        <v>0.07504227422236603</v>
+        <v>0.06475315901217815</v>
       </c>
       <c r="T24">
-        <v>0.07504227422236603</v>
+        <v>0.0854591989244346</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N25">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O25">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P25">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q25">
-        <v>866.3612199028546</v>
+        <v>905.8670039922465</v>
       </c>
       <c r="R25">
-        <v>866.3612199028546</v>
+        <v>5435.202023953479</v>
       </c>
       <c r="S25">
-        <v>0.04094624918227525</v>
+        <v>0.03507156962902539</v>
       </c>
       <c r="T25">
-        <v>0.04094624918227525</v>
+        <v>0.03085757556070593</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N26">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O26">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P26">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q26">
-        <v>212.4472673681205</v>
+        <v>220.2053755453617</v>
       </c>
       <c r="R26">
-        <v>212.4472673681205</v>
+        <v>1321.23225327217</v>
       </c>
       <c r="S26">
-        <v>0.01004075268826544</v>
+        <v>0.008525476838309632</v>
       </c>
       <c r="T26">
-        <v>0.01004075268826544</v>
+        <v>0.007501105553926084</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N27">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P27">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q27">
-        <v>5.032580365073874</v>
+        <v>8.091681763000778</v>
       </c>
       <c r="R27">
-        <v>5.032580365073874</v>
+        <v>72.82513586700701</v>
       </c>
       <c r="S27">
-        <v>0.0002378514699460425</v>
+        <v>0.0003132777539266965</v>
       </c>
       <c r="T27">
-        <v>0.0002378514699460425</v>
+        <v>0.0004134542051668323</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N28">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O28">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P28">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q28">
-        <v>2.072293351453988</v>
+        <v>2.689569329176223</v>
       </c>
       <c r="R28">
-        <v>2.072293351453988</v>
+        <v>24.20612396258601</v>
       </c>
       <c r="S28">
-        <v>9.794141057805178E-05</v>
+        <v>0.000104129433553253</v>
       </c>
       <c r="T28">
-        <v>9.794141057805178E-05</v>
+        <v>0.0001374267774988791</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N29">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O29">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P29">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q29">
-        <v>2.599449196746667</v>
+        <v>3.067085907785666</v>
       </c>
       <c r="R29">
-        <v>2.599449196746667</v>
+        <v>27.603773170071</v>
       </c>
       <c r="S29">
-        <v>0.0001228560236786558</v>
+        <v>0.0001187453748718595</v>
       </c>
       <c r="T29">
-        <v>0.0001228560236786558</v>
+        <v>0.0001567164408244898</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N30">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O30">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P30">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q30">
-        <v>137.0220824379715</v>
+        <v>145.58165054631</v>
       </c>
       <c r="R30">
-        <v>137.0220824379715</v>
+        <v>1310.23485491679</v>
       </c>
       <c r="S30">
-        <v>0.006475982768028967</v>
+        <v>0.005636342831057632</v>
       </c>
       <c r="T30">
-        <v>0.006475982768028967</v>
+        <v>0.007438669410940644</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N31">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O31">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P31">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q31">
-        <v>74.76506261463012</v>
+        <v>78.84985183322266</v>
       </c>
       <c r="R31">
-        <v>74.76506261463012</v>
+        <v>473.099110999336</v>
       </c>
       <c r="S31">
-        <v>0.003533571002047306</v>
+        <v>0.003052752839677196</v>
       </c>
       <c r="T31">
-        <v>0.003533571002047306</v>
+        <v>0.00268595196664759</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N32">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O32">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P32">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q32">
-        <v>719.0386197853577</v>
+        <v>741.5304492920625</v>
       </c>
       <c r="R32">
-        <v>719.0386197853577</v>
+        <v>2966.12179716825</v>
       </c>
       <c r="S32">
-        <v>0.03398343995673289</v>
+        <v>0.02870911145871877</v>
       </c>
       <c r="T32">
-        <v>0.03398343995673289</v>
+        <v>0.01683972869361728</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N33">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P33">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q33">
-        <v>17.03302511013899</v>
+        <v>27.2483285132625</v>
       </c>
       <c r="R33">
-        <v>17.03302511013899</v>
+        <v>163.489971079575</v>
       </c>
       <c r="S33">
-        <v>0.0008050204400491363</v>
+        <v>0.001054946969605732</v>
       </c>
       <c r="T33">
-        <v>0.0008050204400491363</v>
+        <v>0.0009281907303118108</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N34">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O34">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P34">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q34">
-        <v>7.013782618525902</v>
+        <v>9.056988495975002</v>
       </c>
       <c r="R34">
-        <v>7.013782618525902</v>
+        <v>54.34193097585</v>
       </c>
       <c r="S34">
-        <v>0.0003314877030630192</v>
+        <v>0.0003506505935926418</v>
       </c>
       <c r="T34">
-        <v>0.0003314877030630192</v>
+        <v>0.000308518475267684</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N35">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O35">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P35">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q35">
-        <v>8.797968483125592</v>
+        <v>10.3282564541625</v>
       </c>
       <c r="R35">
-        <v>8.797968483125592</v>
+        <v>61.96953872497499</v>
       </c>
       <c r="S35">
-        <v>0.0004158124827520083</v>
+        <v>0.000399869035721817</v>
       </c>
       <c r="T35">
-        <v>0.0004158124827520083</v>
+        <v>0.0003518231181178952</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N36">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O36">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P36">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q36">
-        <v>463.7582316631806</v>
+        <v>490.2388348646251</v>
       </c>
       <c r="R36">
-        <v>463.7582316631806</v>
+        <v>2941.43300918775</v>
       </c>
       <c r="S36">
-        <v>0.02191829421467085</v>
+        <v>0.01898009901678033</v>
       </c>
       <c r="T36">
-        <v>0.02191829421467085</v>
+        <v>0.01669956166077231</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N37">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O37">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P37">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q37">
-        <v>253.0461704524446</v>
+        <v>265.52288249865</v>
       </c>
       <c r="R37">
-        <v>253.0461704524446</v>
+        <v>1062.0915299946</v>
       </c>
       <c r="S37">
-        <v>0.01195955141104781</v>
+        <v>0.01027999057324163</v>
       </c>
       <c r="T37">
-        <v>0.01195955141104781</v>
+        <v>0.006029871473913524</v>
       </c>
     </row>
   </sheetData>
